--- a/biology/Histoire de la zoologie et de la botanique/Elizabeth_Britton/Elizabeth_Britton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Elizabeth_Britton/Elizabeth_Britton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elizabeth Gertrude Britton, née Knight, est une botaniste américaine, née le 9 janvier 1858 à New York et morte le 25 février 1934 dans sa ville natale.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est James Knight et sa mère Sophie née Compton. Avec ses quatre sœurs, Elizabeth passe son enfance à Cuba où son père dirige une plantation de canne à sucre. Elle étudie au Normal College de New York en 1875 dans lequel elle commence à travailler, jusqu’en 1885. Passionnée de botanique, elle participe aux activités de Torrey Botanical Club à partir de 1879 et fait paraître sa première publication en 1883.
 En 1885, elle épouse le botaniste et géologue Nathaniel Lord Britton, alors assistant en géologie au Columbia College. Elle y gère, bénévolement, la collection des mousses de l’établissement. Elle participe, avec son mari, à la création du Jardin botanique de New York, que Nathaniel dirige en 1891.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Marilyn Ogilvie et Joy Harvey (dir.) (2000). The Biographical Dictionary of Women in Science. Pionneering Lives from Ancient Times to the Mid-20th Century, deux volumes, Routledge (New York) : 47-48.  (ISBN 0-415-92038-8)</t>
         </is>
